--- a/parabolic/2025/09/08/parabolic.xlsx
+++ b/parabolic/2025/09/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
-        <v>260000</v>
+        <v>1097800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>215</v>
+        <v>599</v>
       </c>
       <c r="D3" t="n">
-        <v>1642300</v>
+        <v>140200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>286400</v>
+        <v>339500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>712</v>
+        <v>222</v>
       </c>
       <c r="D5" t="n">
-        <v>589800</v>
+        <v>3165800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="D6" t="n">
-        <v>210000</v>
+        <v>453100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>591</v>
+        <v>242</v>
       </c>
       <c r="D7" t="n">
-        <v>171900</v>
+        <v>102800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>238</v>
+        <v>557</v>
       </c>
       <c r="D8" t="n">
-        <v>109700</v>
+        <v>142600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>735</v>
       </c>
       <c r="D9" t="n">
-        <v>169200</v>
+        <v>981800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>956</v>
+        <v>169</v>
       </c>
       <c r="D10" t="n">
-        <v>235000</v>
+        <v>277000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6966</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>858</v>
+        <v>582</v>
       </c>
       <c r="D11" t="n">
-        <v>260500</v>
+        <v>202500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="D12" t="n">
-        <v>257100</v>
+        <v>174900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D13" t="n">
-        <v>331300</v>
+        <v>113400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9417</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>483</v>
+        <v>237</v>
       </c>
       <c r="D14" t="n">
-        <v>574900</v>
+        <v>131100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,16 +781,269 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>932</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>656900</v>
+        <v>199800</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>4882</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>353</v>
+      </c>
+      <c r="D16" t="n">
+        <v>119100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>618</v>
+      </c>
+      <c r="D17" t="n">
+        <v>169300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>6088</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>946</v>
+      </c>
+      <c r="D18" t="n">
+        <v>346500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>6197</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6966</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>859</v>
+      </c>
+      <c r="D20" t="n">
+        <v>433400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>103</v>
+      </c>
+      <c r="D21" t="n">
+        <v>115400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>7888</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>908</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>421</v>
+      </c>
+      <c r="D23" t="n">
+        <v>360800</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>594</v>
+      </c>
+      <c r="D24" t="n">
+        <v>498400</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>490</v>
+      </c>
+      <c r="D25" t="n">
+        <v>695500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>938</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1099300</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/08/parabolic.xlsx
+++ b/parabolic/2025/09/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="n">
-        <v>1097800</v>
+        <v>1265200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>599</v>
       </c>
       <c r="D3" t="n">
-        <v>140200</v>
+        <v>285400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D4" t="n">
-        <v>339500</v>
+        <v>468200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
-        <v>3165800</v>
+        <v>3722800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>443</v>
       </c>
       <c r="D6" t="n">
-        <v>453100</v>
+        <v>765500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>102800</v>
+        <v>118300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D8" t="n">
-        <v>142600</v>
+        <v>227200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>735</v>
+        <v>133</v>
       </c>
       <c r="D9" t="n">
-        <v>981800</v>
+        <v>964200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>169</v>
+        <v>724</v>
       </c>
       <c r="D10" t="n">
-        <v>277000</v>
+        <v>1278200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>582</v>
+        <v>169</v>
       </c>
       <c r="D11" t="n">
-        <v>202500</v>
+        <v>310500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380</v>
+        <v>582</v>
       </c>
       <c r="D12" t="n">
-        <v>174900</v>
+        <v>227800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>579</v>
+        <v>370</v>
       </c>
       <c r="D13" t="n">
-        <v>113400</v>
+        <v>206600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="D14" t="n">
-        <v>131100</v>
+        <v>100500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>577</v>
       </c>
       <c r="D15" t="n">
-        <v>199800</v>
+        <v>125500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>353</v>
+        <v>465</v>
       </c>
       <c r="D16" t="n">
-        <v>119100</v>
+        <v>113400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>618</v>
+        <v>237</v>
       </c>
       <c r="D17" t="n">
-        <v>169300</v>
+        <v>149900</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>946</v>
+        <v>156</v>
       </c>
       <c r="D18" t="n">
-        <v>346500</v>
+        <v>170900</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>488</v>
+        <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>158800</v>
+        <v>224500</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6966</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>859</v>
+        <v>354</v>
       </c>
       <c r="D20" t="n">
-        <v>433400</v>
+        <v>138000</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>103</v>
+        <v>615</v>
       </c>
       <c r="D21" t="n">
-        <v>115400</v>
+        <v>217200</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>908</v>
+        <v>951</v>
       </c>
       <c r="D22" t="n">
-        <v>128100</v>
+        <v>438200</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>6157</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>421</v>
+        <v>810</v>
       </c>
       <c r="D23" t="n">
-        <v>360800</v>
+        <v>110300</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="D24" t="n">
-        <v>498400</v>
+        <v>178400</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>9417</t>
+          <t>6966</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>490</v>
+        <v>858</v>
       </c>
       <c r="D25" t="n">
-        <v>695500</v>
+        <v>641400</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>7795</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,16 +1034,177 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>938</v>
+        <v>201</v>
       </c>
       <c r="D26" t="n">
-        <v>1099300</v>
+        <v>101000</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>103</v>
+      </c>
+      <c r="D27" t="n">
+        <v>134700</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>7888</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>908</v>
+      </c>
+      <c r="D28" t="n">
+        <v>147100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>7971</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>588</v>
+      </c>
+      <c r="D29" t="n">
+        <v>135700</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>420</v>
+      </c>
+      <c r="D30" t="n">
+        <v>412600</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>593</v>
+      </c>
+      <c r="D31" t="n">
+        <v>774300</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>484</v>
+      </c>
+      <c r="D32" t="n">
+        <v>747300</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>952</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1480700</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/08/parabolic.xlsx
+++ b/parabolic/2025/09/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" t="n">
-        <v>1265200</v>
+        <v>1349800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D3" t="n">
-        <v>285400</v>
+        <v>583200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>468200</v>
+        <v>571700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>218</v>
       </c>
       <c r="D5" t="n">
-        <v>3722800</v>
+        <v>5177800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>443</v>
       </c>
       <c r="D6" t="n">
-        <v>765500</v>
+        <v>964800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D7" t="n">
-        <v>118300</v>
+        <v>161200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>548</v>
       </c>
       <c r="D8" t="n">
-        <v>227200</v>
+        <v>264100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>133</v>
       </c>
       <c r="D9" t="n">
-        <v>964200</v>
+        <v>1105900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>724</v>
+        <v>112</v>
       </c>
       <c r="D10" t="n">
-        <v>1278200</v>
+        <v>887000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169</v>
+        <v>738</v>
       </c>
       <c r="D11" t="n">
-        <v>310500</v>
+        <v>1518600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>582</v>
+        <v>170</v>
       </c>
       <c r="D12" t="n">
-        <v>227800</v>
+        <v>339700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>370</v>
+        <v>587</v>
       </c>
       <c r="D13" t="n">
-        <v>206600</v>
+        <v>261100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="D14" t="n">
-        <v>100500</v>
+        <v>230800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>468</v>
       </c>
       <c r="D15" t="n">
-        <v>125500</v>
+        <v>158900</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>465</v>
+        <v>712</v>
       </c>
       <c r="D16" t="n">
-        <v>113400</v>
+        <v>108200</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>237</v>
+        <v>574</v>
       </c>
       <c r="D17" t="n">
-        <v>149900</v>
+        <v>135500</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>156</v>
+        <v>467</v>
       </c>
       <c r="D18" t="n">
-        <v>170900</v>
+        <v>130000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="D19" t="n">
-        <v>224500</v>
+        <v>193600</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="D20" t="n">
-        <v>138000</v>
+        <v>221500</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>615</v>
+        <v>118</v>
       </c>
       <c r="D21" t="n">
-        <v>217200</v>
+        <v>248900</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>951</v>
+        <v>354</v>
       </c>
       <c r="D22" t="n">
-        <v>438200</v>
+        <v>173200</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>6157</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>810</v>
+        <v>620</v>
       </c>
       <c r="D23" t="n">
-        <v>110300</v>
+        <v>242100</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>489</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>178400</v>
+        <v>609000</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>6966</t>
+          <t>6157</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>858</v>
+        <v>815</v>
       </c>
       <c r="D25" t="n">
-        <v>641400</v>
+        <v>135600</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>7795</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="D26" t="n">
-        <v>101000</v>
+        <v>101300</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>103</v>
+        <v>490</v>
       </c>
       <c r="D27" t="n">
-        <v>134700</v>
+        <v>237700</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>6966</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="D28" t="n">
-        <v>147100</v>
+        <v>1181000</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>7795</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>588</v>
+        <v>203</v>
       </c>
       <c r="D29" t="n">
-        <v>135700</v>
+        <v>132900</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>412600</v>
+        <v>167900</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>7888</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>593</v>
+        <v>916</v>
       </c>
       <c r="D31" t="n">
-        <v>774300</v>
+        <v>173100</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>9417</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>484</v>
+        <v>590</v>
       </c>
       <c r="D32" t="n">
-        <v>747300</v>
+        <v>169800</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>8226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1195,16 +1195,85 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>952</v>
+        <v>428</v>
       </c>
       <c r="D33" t="n">
-        <v>1480700</v>
+        <v>479900</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>592</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1013100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>483</v>
+      </c>
+      <c r="D35" t="n">
+        <v>795600</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>953</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1765600</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/08/parabolic.xlsx
+++ b/parabolic/2025/09/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>246A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>548</v>
+        <v>727</v>
       </c>
       <c r="D8" t="n">
-        <v>264100</v>
+        <v>365600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="D9" t="n">
-        <v>1105900</v>
+        <v>264100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>887000</v>
+        <v>1105900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>738</v>
+        <v>112</v>
       </c>
       <c r="D11" t="n">
-        <v>1518600</v>
+        <v>887000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>170</v>
+        <v>738</v>
       </c>
       <c r="D12" t="n">
-        <v>339700</v>
+        <v>1518600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>587</v>
+        <v>170</v>
       </c>
       <c r="D13" t="n">
-        <v>261100</v>
+        <v>339700</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>368</v>
+        <v>587</v>
       </c>
       <c r="D14" t="n">
-        <v>230800</v>
+        <v>261100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>468</v>
+        <v>368</v>
       </c>
       <c r="D15" t="n">
-        <v>158900</v>
+        <v>230800</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="D16" t="n">
-        <v>108200</v>
+        <v>158900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>574</v>
+        <v>712</v>
       </c>
       <c r="D17" t="n">
-        <v>135500</v>
+        <v>108200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>467</v>
+        <v>574</v>
       </c>
       <c r="D18" t="n">
-        <v>130000</v>
+        <v>135500</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="D19" t="n">
-        <v>193600</v>
+        <v>130000</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="D20" t="n">
-        <v>221500</v>
+        <v>193600</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D21" t="n">
-        <v>248900</v>
+        <v>221500</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="D22" t="n">
-        <v>173200</v>
+        <v>248900</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>620</v>
+        <v>354</v>
       </c>
       <c r="D23" t="n">
-        <v>242100</v>
+        <v>173200</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>620</v>
       </c>
       <c r="D24" t="n">
-        <v>609000</v>
+        <v>242100</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>6157</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>815</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>135600</v>
+        <v>609000</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>6157</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>416</v>
+        <v>815</v>
       </c>
       <c r="D26" t="n">
-        <v>101300</v>
+        <v>135600</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="D27" t="n">
-        <v>237700</v>
+        <v>101300</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>6966</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>868</v>
+        <v>490</v>
       </c>
       <c r="D28" t="n">
-        <v>1181000</v>
+        <v>237700</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7795</t>
+          <t>6966</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>203</v>
+        <v>868</v>
       </c>
       <c r="D29" t="n">
-        <v>132900</v>
+        <v>1181000</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>7795</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D30" t="n">
-        <v>167900</v>
+        <v>132900</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>916</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>173100</v>
+        <v>167900</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>7888</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>590</v>
+        <v>916</v>
       </c>
       <c r="D32" t="n">
-        <v>169800</v>
+        <v>173100</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>428</v>
+        <v>590</v>
       </c>
       <c r="D33" t="n">
-        <v>479900</v>
+        <v>169800</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>8226</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>592</v>
+        <v>428</v>
       </c>
       <c r="D34" t="n">
-        <v>1013100</v>
+        <v>479900</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>9417</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>483</v>
+        <v>592</v>
       </c>
       <c r="D35" t="n">
-        <v>795600</v>
+        <v>1013100</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>9417</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1264,16 +1264,39 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>953</v>
+        <v>483</v>
       </c>
       <c r="D36" t="n">
-        <v>1765600</v>
+        <v>795600</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>953</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1765600</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
